--- a/biology/Zoologie/Grande_gerbille_d'Aden/Grande_gerbille_d'Aden.xlsx
+++ b/biology/Zoologie/Grande_gerbille_d'Aden/Grande_gerbille_d'Aden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grande_gerbille_d%27Aden</t>
+          <t>Grande_gerbille_d'Aden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus poecilops
-La Grande gerbille d'Aden[1] (Gerbillus poecilops ou Gerbillus (Hendecapleura) poecilops) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés, originaire d'Arabie saoudite et du Yémen.
+La Grande gerbille d'Aden (Gerbillus poecilops ou Gerbillus (Hendecapleura) poecilops) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés, originaire d'Arabie saoudite et du Yémen.
 </t>
         </is>
       </c>
